--- a/data/trans_orig/P36B13_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>162957</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>139274</v>
+        <v>139983</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>188124</v>
+        <v>187895</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1452457903708799</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1241364560696919</v>
+        <v>0.1247684562341863</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1676773197760802</v>
+        <v>0.1674734034922176</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>79</v>
@@ -763,19 +763,19 @@
         <v>80577</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62915</v>
+        <v>64333</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>99361</v>
+        <v>97986</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06421066955361353</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05013591076853027</v>
+        <v>0.05126585137365358</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0791786118705516</v>
+        <v>0.07808289849067418</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>234</v>
@@ -784,19 +784,19 @@
         <v>243535</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>217221</v>
+        <v>214920</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>273209</v>
+        <v>273887</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1024618459256594</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09139094230764365</v>
+        <v>0.09042296698123001</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1149466048548391</v>
+        <v>0.1152319848761813</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>958984</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>933817</v>
+        <v>934046</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>982667</v>
+        <v>981958</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8547542096291201</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8323226802239198</v>
+        <v>0.8325265965077825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8758635439303081</v>
+        <v>0.8752315437658138</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1105</v>
@@ -834,19 +834,19 @@
         <v>1174314</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1155530</v>
+        <v>1156905</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1191976</v>
+        <v>1190558</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9357893304463865</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9208213881294484</v>
+        <v>0.9219171015093255</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9498640892314698</v>
+        <v>0.9487341486263464</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2011</v>
@@ -855,19 +855,19 @@
         <v>2133297</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2103623</v>
+        <v>2102945</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2159611</v>
+        <v>2161912</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8975381540743406</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8850533951451612</v>
+        <v>0.8847680151238186</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9086090576923564</v>
+        <v>0.9095770330187699</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>101535</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>84590</v>
+        <v>83923</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>120351</v>
+        <v>120517</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1123118267668407</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09356859166161592</v>
+        <v>0.09282997547894389</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1331250649033865</v>
+        <v>0.1333084835305023</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -980,19 +980,19 @@
         <v>79085</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63955</v>
+        <v>63385</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>100040</v>
+        <v>97976</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07934528172253417</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06416482238192697</v>
+        <v>0.06359351025634814</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1003684674487154</v>
+        <v>0.09829835011845281</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>180</v>
@@ -1001,19 +1001,19 @@
         <v>180621</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>156158</v>
+        <v>156743</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>206910</v>
+        <v>206836</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09502488833335095</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08215503316237095</v>
+        <v>0.08246282592108711</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1088559708364829</v>
+        <v>0.108817003593087</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>802513</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>783697</v>
+        <v>783531</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>819458</v>
+        <v>820125</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8876881732331593</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8668749350966131</v>
+        <v>0.8666915164694978</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9064314083383841</v>
+        <v>0.9071700245210561</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>864</v>
@@ -1051,19 +1051,19 @@
         <v>917638</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>896683</v>
+        <v>898747</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>932768</v>
+        <v>933338</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9206547182774658</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8996315325512834</v>
+        <v>0.9017016498815471</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9358351776180729</v>
+        <v>0.9364064897436518</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1639</v>
@@ -1072,19 +1072,19 @@
         <v>1720150</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1693861</v>
+        <v>1693935</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1744613</v>
+        <v>1744028</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.904975111666649</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8911440291635171</v>
+        <v>0.8911829964069131</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9178449668376288</v>
+        <v>0.917537174078913</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>96361</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79893</v>
+        <v>79218</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116460</v>
+        <v>116498</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1179101503201126</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.097759727109569</v>
+        <v>0.09693310156336928</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1425041142336094</v>
+        <v>0.1425501278206296</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -1197,19 +1197,19 @@
         <v>75850</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60519</v>
+        <v>60888</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93159</v>
+        <v>93035</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09881906532511031</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07884451959478241</v>
+        <v>0.07932615735099392</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1213683453372766</v>
+        <v>0.1212075519937682</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -1218,19 +1218,19 @@
         <v>172212</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>147761</v>
+        <v>148092</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>198505</v>
+        <v>198902</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1086638016232536</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09323595255059644</v>
+        <v>0.0934444594491938</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.125254817595365</v>
+        <v>0.1255053839832603</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>720882</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>700783</v>
+        <v>700745</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>737350</v>
+        <v>738025</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8820898496798875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8574958857663906</v>
+        <v>0.8574498721793703</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9022402728904311</v>
+        <v>0.9030668984366308</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -1268,19 +1268,19 @@
         <v>691719</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>674410</v>
+        <v>674534</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>707050</v>
+        <v>706681</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9011809346748897</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8786316546627233</v>
+        <v>0.8787924480062315</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9211554804052174</v>
+        <v>0.920673842649006</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1340</v>
@@ -1289,19 +1289,19 @@
         <v>1412600</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1386307</v>
+        <v>1385910</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1437051</v>
+        <v>1436720</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8913361983767464</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8747451824046351</v>
+        <v>0.8744946160167398</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9067640474494036</v>
+        <v>0.9065555405508062</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>56119</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43421</v>
+        <v>44112</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72694</v>
+        <v>71687</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1114655182077196</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08624526795720849</v>
+        <v>0.08761714780326561</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.144386481016572</v>
+        <v>0.1423880965239885</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -1414,19 +1414,19 @@
         <v>36507</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26794</v>
+        <v>25162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49033</v>
+        <v>48366</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07539382908943142</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0553352832049878</v>
+        <v>0.05196467676472411</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.101262603956448</v>
+        <v>0.09988485817976948</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>91</v>
@@ -1435,19 +1435,19 @@
         <v>92626</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76280</v>
+        <v>75644</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>111289</v>
+        <v>111902</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09378123492304546</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07723139779249658</v>
+        <v>0.07658746104740491</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1126778274202218</v>
+        <v>0.1132983476566041</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>447346</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>430771</v>
+        <v>431778</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>460044</v>
+        <v>459353</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8885344817922805</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.855613518983428</v>
+        <v>0.8576119034760116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9137547320427916</v>
+        <v>0.9123828521967345</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>414</v>
@@ -1485,19 +1485,19 @@
         <v>447706</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>435180</v>
+        <v>435847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>457419</v>
+        <v>459051</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9246061709105686</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8987373960435521</v>
+        <v>0.9001151418202306</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9446647167950125</v>
+        <v>0.9480353232352758</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>828</v>
@@ -1506,19 +1506,19 @@
         <v>895052</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>876389</v>
+        <v>875776</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>911398</v>
+        <v>912034</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9062187650769545</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8873221725797782</v>
+        <v>0.886701652343396</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9227686022075035</v>
+        <v>0.9234125389525951</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>416973</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>381531</v>
+        <v>377086</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>458171</v>
+        <v>457505</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1245923140204354</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1140022761564446</v>
+        <v>0.1126740390070076</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.13690256850837</v>
+        <v>0.1367034769539808</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>269</v>
@@ -1631,19 +1631,19 @@
         <v>272020</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>238258</v>
+        <v>240673</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>302720</v>
+        <v>303835</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07764459925950415</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06800777499064795</v>
+        <v>0.0686969497121179</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08640752693599371</v>
+        <v>0.08672571100886992</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>672</v>
@@ -1652,19 +1652,19 @@
         <v>688993</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>632587</v>
+        <v>641302</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>738726</v>
+        <v>740088</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1005814824317003</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09234716453826007</v>
+        <v>0.09361947462903408</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1078417436216428</v>
+        <v>0.1080405376785637</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2929724</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2888526</v>
+        <v>2889192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2965166</v>
+        <v>2969611</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8754076859795646</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.86309743149163</v>
+        <v>0.8632965230460193</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8859977238435554</v>
+        <v>0.8873259609929927</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3034</v>
@@ -1702,19 +1702,19 @@
         <v>3231376</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3200676</v>
+        <v>3199561</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3265138</v>
+        <v>3262723</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9223554007404958</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9135924730640064</v>
+        <v>0.9132742889911302</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9319922250093522</v>
+        <v>0.9313030502878822</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5818</v>
@@ -1723,19 +1723,19 @@
         <v>6161100</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6111367</v>
+        <v>6110005</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6217506</v>
+        <v>6208791</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8994185175682997</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8921582563783572</v>
+        <v>0.8919594623214363</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9076528354617398</v>
+        <v>0.9063805253709658</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>76934</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58996</v>
+        <v>58891</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>99762</v>
+        <v>100639</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1542573354692203</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1182897453239732</v>
+        <v>0.1180790487191267</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2000282607461269</v>
+        <v>0.2017872713583527</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -2088,19 +2088,19 @@
         <v>28693</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20497</v>
+        <v>21027</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38891</v>
+        <v>39235</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04609615614959288</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03292912360865913</v>
+        <v>0.03378006786257803</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06247943402269459</v>
+        <v>0.06303115383795414</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>93</v>
@@ -2109,19 +2109,19 @@
         <v>105627</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>84255</v>
+        <v>84143</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>130614</v>
+        <v>128857</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09420902364941185</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07514710680316726</v>
+        <v>0.07504677711669476</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1164942317329777</v>
+        <v>0.1149279440770992</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>421805</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>398977</v>
+        <v>398100</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>439743</v>
+        <v>439848</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8457426645307796</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7999717392538731</v>
+        <v>0.7982127286416473</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8817102546760266</v>
+        <v>0.8819209512808736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>823</v>
@@ -2159,19 +2159,19 @@
         <v>593770</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>583572</v>
+        <v>583228</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>601966</v>
+        <v>601436</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9539038438504073</v>
+        <v>0.9539038438504071</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9375205659773053</v>
+        <v>0.9369688461620459</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9670708763913408</v>
+        <v>0.9662199321374219</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1221</v>
@@ -2180,19 +2180,19 @@
         <v>1015575</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>990588</v>
+        <v>992345</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1036947</v>
+        <v>1037059</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9057909763505883</v>
+        <v>0.9057909763505881</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8835057682670223</v>
+        <v>0.8850720559229008</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9248528931968328</v>
+        <v>0.9249532228833053</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>68451</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49440</v>
+        <v>50746</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88230</v>
+        <v>91750</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07135748262261114</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05153912459287937</v>
+        <v>0.05290053130666546</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09197558120882876</v>
+        <v>0.09564559592732444</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -2305,19 +2305,19 @@
         <v>46244</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34488</v>
+        <v>33579</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63104</v>
+        <v>60161</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04151815001687557</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03096324260350201</v>
+        <v>0.03014763780837556</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05665498070489777</v>
+        <v>0.05401246297994342</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -2326,19 +2326,19 @@
         <v>114696</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>93285</v>
+        <v>93065</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138869</v>
+        <v>138280</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05532545851747279</v>
+        <v>0.05532545851747278</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04499758488217826</v>
+        <v>0.04489178141339578</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06698576717277747</v>
+        <v>0.06670198694237028</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>890821</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>871042</v>
+        <v>867522</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>909832</v>
+        <v>908526</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9286425173773889</v>
+        <v>0.9286425173773891</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9080244187911712</v>
+        <v>0.9043544040726753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9484608754071205</v>
+        <v>0.9470994686933344</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1552</v>
@@ -2376,19 +2376,19 @@
         <v>1067591</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1050731</v>
+        <v>1053674</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1079347</v>
+        <v>1080256</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9584818499831244</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9433450192951023</v>
+        <v>0.9459875370200567</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9690367573964977</v>
+        <v>0.9698523621916244</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2407</v>
@@ -2397,19 +2397,19 @@
         <v>1958411</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1934238</v>
+        <v>1934827</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1979822</v>
+        <v>1980042</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9446745414825272</v>
+        <v>0.9446745414825271</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9330142328272226</v>
+        <v>0.93329801305763</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9550024151178219</v>
+        <v>0.9551082185866043</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>73716</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53487</v>
+        <v>54503</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96327</v>
+        <v>95517</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07047974348458051</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05113882750290914</v>
+        <v>0.05210980468333826</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09209787719442603</v>
+        <v>0.09132389873261339</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -2522,19 +2522,19 @@
         <v>34449</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23401</v>
+        <v>24282</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48675</v>
+        <v>49492</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03296728951994107</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02239490755162955</v>
+        <v>0.02323772743279185</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04658106070055015</v>
+        <v>0.04736304166823772</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>88</v>
@@ -2543,19 +2543,19 @@
         <v>108165</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>85838</v>
+        <v>85302</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>133592</v>
+        <v>133389</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0517322358845499</v>
+        <v>0.05173223588454991</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04105378503513675</v>
+        <v>0.04079727290470789</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06389288850372356</v>
+        <v>0.06379601372100081</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>972203</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>949592</v>
+        <v>950402</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>992432</v>
+        <v>991416</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9295202565154196</v>
+        <v>0.9295202565154194</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9079021228055739</v>
+        <v>0.9086761012673864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9488611724970908</v>
+        <v>0.9478901953166617</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1476</v>
@@ -2593,19 +2593,19 @@
         <v>1010498</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>996272</v>
+        <v>995455</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1021546</v>
+        <v>1020665</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9670327104800589</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9534189392994499</v>
+        <v>0.9526369583317622</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9776050924483703</v>
+        <v>0.9767622725672082</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2452</v>
@@ -2614,19 +2614,19 @@
         <v>1982702</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1957275</v>
+        <v>1957478</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2005029</v>
+        <v>2005565</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9482677641154501</v>
+        <v>0.9482677641154502</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9361071114962767</v>
+        <v>0.9362039862789999</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9589462149648635</v>
+        <v>0.9592027270952921</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>41960</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28557</v>
+        <v>28758</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61074</v>
+        <v>60867</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0430744714110982</v>
+        <v>0.04307447141109821</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0293149720714667</v>
+        <v>0.02952147297318365</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06269629367426272</v>
+        <v>0.06248381015173544</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -2739,19 +2739,19 @@
         <v>32867</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22393</v>
+        <v>22432</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49221</v>
+        <v>48468</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03632627484141527</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02474968177947339</v>
+        <v>0.02479236317922395</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05440112249011789</v>
+        <v>0.053569481086335</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -2760,19 +2760,19 @@
         <v>74827</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57274</v>
+        <v>54688</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96597</v>
+        <v>96151</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03982491519241958</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03048262666809393</v>
+        <v>0.02910614451716978</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05141136505166404</v>
+        <v>0.05117420275043835</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>932169</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>913055</v>
+        <v>913262</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>945572</v>
+        <v>945371</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9569255285889017</v>
+        <v>0.9569255285889018</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9373037063257372</v>
+        <v>0.937516189848264</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9706850279285332</v>
+        <v>0.9704785270268163</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1284</v>
@@ -2810,19 +2810,19 @@
         <v>871909</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>855555</v>
+        <v>856308</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>882383</v>
+        <v>882344</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9636737251585846</v>
+        <v>0.9636737251585847</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9455988775098818</v>
+        <v>0.9464305189136653</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9752503182205265</v>
+        <v>0.975207636820776</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2197</v>
@@ -2831,19 +2831,19 @@
         <v>1804078</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1782308</v>
+        <v>1782754</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1821631</v>
+        <v>1824217</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9601750848075803</v>
+        <v>0.9601750848075804</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.948588634948336</v>
+        <v>0.948825797249562</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9695173733319059</v>
+        <v>0.9708938554828301</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>261062</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>226024</v>
+        <v>224312</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>298044</v>
+        <v>301088</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07505956764977517</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06498559962564758</v>
+        <v>0.06449343491795588</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08569261556352317</v>
+        <v>0.08656792459513492</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>156</v>
@@ -2956,19 +2956,19 @@
         <v>142254</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>120751</v>
+        <v>121041</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>169485</v>
+        <v>170071</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03859276062909992</v>
+        <v>0.03859276062909993</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03275913723985052</v>
+        <v>0.03283772995771368</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04598054199202118</v>
+        <v>0.04613957249284478</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>351</v>
@@ -2977,19 +2977,19 @@
         <v>403315</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>360713</v>
+        <v>360188</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>450551</v>
+        <v>452139</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0562968770227584</v>
+        <v>0.05629687702275841</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05035014289252503</v>
+        <v>0.05027694653706126</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06289025357303694</v>
+        <v>0.06311192770310443</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3216998</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3180016</v>
+        <v>3176972</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3252036</v>
+        <v>3253748</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9249404323502251</v>
+        <v>0.9249404323502248</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9143073844364767</v>
+        <v>0.913432075404865</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9350144003743524</v>
+        <v>0.9355065650820441</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5135</v>
@@ -3027,19 +3027,19 @@
         <v>3543768</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3516537</v>
+        <v>3515951</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3565271</v>
+        <v>3564981</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9614072393709</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9540194580079789</v>
+        <v>0.9538604275071552</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9672408627601495</v>
+        <v>0.9671622700422865</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8277</v>
@@ -3048,19 +3048,19 @@
         <v>6760766</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6713530</v>
+        <v>6711942</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6803368</v>
+        <v>6803893</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9437031229772416</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.937109746426963</v>
+        <v>0.9368880722968955</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.949649857107475</v>
+        <v>0.9497230534629386</v>
       </c>
     </row>
     <row r="18">
